--- a/tools/histogram_maker/sfHistogramMaker.xlsx
+++ b/tools/histogram_maker/sfHistogramMaker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\excel-helpers\tools\histogram_maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8995A3-7BB4-43EC-99CA-FE10A780C596}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B54D55-D6F5-4A42-B8A9-4739C6FC8D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HowTo" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1123,9 +1125,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1159,6 +1158,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1987,16 +1989,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>470298</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251481</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53578</xdr:rowOff>
+      <xdr:rowOff>66450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>290472</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71655</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>339328</xdr:rowOff>
+      <xdr:rowOff>352200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2025,8 +2027,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5709048" y="53578"/>
-          <a:ext cx="1129862" cy="285750"/>
+          <a:off x="5696177" y="66450"/>
+          <a:ext cx="1030106" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2565,48 +2567,48 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="9.1328125" style="56"/>
-    <col min="13" max="13" width="38.1328125" style="56" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" style="56"/>
-    <col min="15" max="15" width="66.33203125" style="56" customWidth="1"/>
-    <col min="16" max="17" width="9.1328125" style="56"/>
-    <col min="18" max="18" width="76.73046875" style="56" customWidth="1"/>
-    <col min="19" max="16384" width="9.1328125" style="56"/>
+    <col min="1" max="12" width="9.140625" style="56"/>
+    <col min="13" max="13" width="38.140625" style="56" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="56"/>
+    <col min="15" max="15" width="66.28515625" style="56" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="56"/>
+    <col min="18" max="18" width="76.7109375" style="56" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="79" customFormat="1" ht="28.5" x14ac:dyDescent="0.85">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:20" s="78" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="77"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="76"/>
+      <c r="N1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-    </row>
-    <row r="2" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:20" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N3" s="57" t="s">
         <v>23</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="N4" s="58">
         <v>1</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="N5" s="60">
         <v>2</v>
       </c>
@@ -2630,7 +2632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="68.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" ht="58.5" x14ac:dyDescent="0.25">
       <c r="N6" s="62">
         <v>3</v>
       </c>
@@ -2638,7 +2640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="55.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" ht="45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N7" s="64">
         <v>4</v>
       </c>
@@ -2646,149 +2648,149 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N10" s="56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="N11" s="74" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11" s="73" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="N15" s="84" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="84"/>
+      <c r="O15" s="83"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="N16" s="84" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="84"/>
+      <c r="O16" s="83"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N17" s="84" t="s">
+    <row r="17" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N17" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="84"/>
+      <c r="O17" s="83"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
     </row>
-    <row r="18" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N18" s="84" t="s">
+    <row r="18" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="84"/>
+      <c r="O18" s="83"/>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
+    <row r="19" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N20" s="84" t="s">
+    <row r="20" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N20" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="O20" s="84"/>
+      <c r="O20" s="83"/>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N21" s="84" t="s">
+    <row r="21" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N21" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="84"/>
+      <c r="O21" s="83"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N22" s="84" t="s">
+    <row r="22" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N22" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="O22" s="84"/>
+      <c r="O22" s="83"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N23" s="84" t="s">
+    <row r="23" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N23" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="84"/>
+      <c r="O23" s="83"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
+    <row r="24" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N25" s="84" t="s">
+    <row r="25" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N25" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="84"/>
+      <c r="O25" s="83"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N26" s="84" t="s">
+    <row r="26" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N26" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="O26" s="84"/>
+      <c r="O26" s="83"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26" s="74"/>
+      <c r="R26" s="73"/>
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N27" s="85" t="s">
+    <row r="27" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N27" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="84"/>
+      <c r="O27" s="83"/>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
@@ -2816,22 +2818,22 @@
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" customWidth="1"/>
-    <col min="11" max="11" width="12.1328125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.265625" customWidth="1"/>
-    <col min="13" max="13" width="9.265625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="6" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20">
         <f ca="1">IF(ROW(A1)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A1)))</f>
         <v>0.57999999999999996</v>
@@ -2896,7 +2898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <f t="shared" ref="A2:A65" ca="1" si="0">IF(ROW(A2)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A2)))</f>
         <v>1.1399999999999999</v>
@@ -2910,23 +2912,23 @@
       <c r="G2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="82">
+      <c r="H2" s="81">
         <f ca="1">MIN(A:A)</f>
         <v>-0.47</v>
       </c>
-      <c r="I2" s="82">
+      <c r="I2" s="81">
         <f ca="1">MAX(A:A)</f>
         <v>3.07</v>
       </c>
-      <c r="J2" s="82">
+      <c r="J2" s="81">
         <f ca="1">(I2-H2)/E5</f>
         <v>0.59</v>
       </c>
-      <c r="K2" s="83">
+      <c r="K2" s="82">
         <f ca="1">2+(I2-H2)/J2</f>
         <v>8</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="69">
         <v>1</v>
       </c>
       <c r="Q2" s="41">
@@ -2960,17 +2962,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>1.23</v>
       </c>
-      <c r="C3" s="71" t="str">
+      <c r="C3" s="70" t="str">
         <f ca="1">MID(ADDRESS(1,COLUMN(OFFSET(INDIRECT(D2&amp;"1"),0,-1))),2,2)</f>
         <v>M$</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="str">
+      <c r="D3" s="71"/>
+      <c r="E3" s="72" t="str">
         <f ca="1">MID(ADDRESS(1,COLUMN(OFFSET(INDIRECT(D2&amp;"1"),0,1))),2,2)</f>
         <v>O$</v>
       </c>
@@ -2986,11 +2988,11 @@
       <c r="J3" s="38">
         <v>0.25</v>
       </c>
-      <c r="K3" s="83">
+      <c r="K3" s="82">
         <f>2+(I3-H3)/J3</f>
         <v>10</v>
       </c>
-      <c r="L3" s="70">
+      <c r="L3" s="69">
         <v>1</v>
       </c>
       <c r="Q3" s="41">
@@ -3024,7 +3026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>1.22</v>
@@ -3050,11 +3052,11 @@
       <c r="J4" s="38">
         <v>0.5</v>
       </c>
-      <c r="K4" s="83">
+      <c r="K4" s="82">
         <f>2+(I4-H4)/J4</f>
         <v>8</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="69">
         <v>1</v>
       </c>
       <c r="Q4" s="41">
@@ -3088,17 +3090,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>1.17</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="80">
+      <c r="D5" s="79">
         <f ca="1">COUNT(A:A)</f>
         <v>32</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="80">
         <f ca="1">ROUND(1+3.322*LOG(D5),0)</f>
         <v>6</v>
       </c>
@@ -3133,7 +3135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>3.07</v>
@@ -3187,7 +3189,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>-0.08</v>
@@ -3195,27 +3197,27 @@
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="81">
         <f ca="1">MIN(A:A)</f>
         <v>-0.47</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="81">
         <f ca="1">MAX(A:A)</f>
         <v>3.07</v>
       </c>
-      <c r="I7" s="82">
+      <c r="I7" s="81">
         <f ca="1">AVERAGE(A:A)</f>
         <v>0.39718750000000003</v>
       </c>
-      <c r="J7" s="82">
+      <c r="J7" s="81">
         <f ca="1">PERCENTILE(A:A,10%)</f>
         <v>-0.21200000000000002</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="81">
         <f ca="1">PERCENTILE(A:A,50%)</f>
         <v>0.15</v>
       </c>
-      <c r="L7" s="82">
+      <c r="L7" s="81">
         <f ca="1">PERCENTILE(A:A,90%)</f>
         <v>1.2150000000000001</v>
       </c>
@@ -3246,7 +3248,7 @@
       <c r="X7" s="37"/>
       <c r="Y7" s="30"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.33</v>
@@ -3278,7 +3280,7 @@
       <c r="X8" s="37"/>
       <c r="Y8" s="30"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.03</v>
@@ -3310,7 +3312,7 @@
       <c r="X9" s="37"/>
       <c r="Y9" s="30"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>-0.22</v>
@@ -3342,7 +3344,7 @@
       <c r="X10" s="37"/>
       <c r="Y10" s="30"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>-0.1</v>
@@ -3374,7 +3376,7 @@
       <c r="X11" s="37"/>
       <c r="Y11" s="30"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.12</v>
@@ -3406,7 +3408,7 @@
       <c r="X12" s="37"/>
       <c r="Y12" s="30"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.15</v>
@@ -3438,7 +3440,7 @@
       <c r="X13" s="37"/>
       <c r="Y13" s="30"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.32</v>
@@ -3470,7 +3472,7 @@
       <c r="X14" s="37"/>
       <c r="Y14" s="30"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.87</v>
@@ -3502,7 +3504,7 @@
       <c r="X15" s="37"/>
       <c r="Y15" s="30"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>-0.14000000000000001</v>
@@ -3534,7 +3536,7 @@
       <c r="X16" s="37"/>
       <c r="Y16" s="30"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
@@ -3566,7 +3568,7 @@
       <c r="X17" s="37"/>
       <c r="Y17" s="30"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>-0.26</v>
@@ -3598,7 +3600,7 @@
       <c r="X18" s="37"/>
       <c r="Y18" s="30"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
@@ -3630,7 +3632,7 @@
       <c r="X19" s="37"/>
       <c r="Y19" s="30"/>
     </row>
-    <row r="20" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.14000000000000001</v>
@@ -3665,7 +3667,7 @@
       <c r="X20" s="25"/>
       <c r="Y20" s="31"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.19</v>
@@ -3677,20 +3679,20 @@
       <c r="K21" s="5"/>
       <c r="L21" s="14"/>
       <c r="M21"/>
-      <c r="Q21" s="69" t="s">
+      <c r="Q21" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69" t="s">
+      <c r="R21" s="85"/>
+      <c r="S21" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69" t="s">
+      <c r="T21" s="85"/>
+      <c r="U21" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="V21" s="69"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="V21" s="85"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.39</v>
@@ -3757,7 +3759,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>-7.0000000000000007E-2</v>
@@ -3783,7 +3785,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>-0.04</v>
@@ -3859,7 +3861,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>-0.47</v>
@@ -3877,7 +3879,7 @@
       <c r="S25" s="53"/>
       <c r="T25" s="53"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>1.72</v>
@@ -3890,7 +3892,7 @@
       <c r="L26" s="14"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>-0.12</v>
@@ -3957,7 +3959,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>-0.28000000000000003</v>
@@ -3983,7 +3985,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.4</v>
@@ -4057,7 +4059,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.87</v>
@@ -4066,7 +4068,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.15</v>
@@ -4079,7 +4081,7 @@
       <c r="L31" s="14"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0.33</v>
@@ -4165,7 +4167,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4191,7 +4193,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4277,7 +4279,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4286,7 +4288,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4314,7 +4316,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4381,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4407,7 +4409,7 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4474,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4483,7 +4485,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4492,7 +4494,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4501,7 +4503,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4510,7 +4512,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4519,7 +4521,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4528,7 +4530,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4537,7 +4539,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4546,7 +4548,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4555,7 +4557,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4564,7 +4566,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4573,7 +4575,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4582,7 +4584,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4591,7 +4593,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4600,7 +4602,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4609,7 +4611,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4618,7 +4620,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4627,7 +4629,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4636,7 +4638,7 @@
       <c r="L57" s="5"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4645,7 +4647,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4654,7 +4656,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4663,7 +4665,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4672,7 +4674,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4681,7 +4683,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4690,7 +4692,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4699,7 +4701,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4708,7 +4710,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="str">
         <f t="shared" ref="A66:A129" ca="1" si="7">IF(ROW(A66)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A66)))</f>
         <v/>
@@ -4717,7 +4719,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4726,7 +4728,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4735,7 +4737,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4744,7 +4746,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4753,7 +4755,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4762,7 +4764,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4771,7 +4773,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4780,7 +4782,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4789,7 +4791,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4798,7 +4800,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4807,7 +4809,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4816,7 +4818,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4825,7 +4827,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4834,7 +4836,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4843,7 +4845,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4852,7 +4854,7 @@
       <c r="L81" s="5"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4861,7 +4863,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4870,7 +4872,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4879,7 +4881,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4888,7 +4890,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4897,7 +4899,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4906,7 +4908,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4915,7 +4917,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4924,7 +4926,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4933,7 +4935,7 @@
       <c r="L90" s="5"/>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4942,7 +4944,7 @@
       <c r="L91" s="5"/>
       <c r="M91" s="14"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4951,7 +4953,7 @@
       <c r="L92" s="5"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4960,7 +4962,7 @@
       <c r="L93" s="5"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4969,7 +4971,7 @@
       <c r="L94" s="5"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4978,7 +4980,7 @@
       <c r="L95" s="5"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4987,7 +4989,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -4996,7 +4998,7 @@
       <c r="L97" s="5"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5005,7 +5007,7 @@
       <c r="L98" s="5"/>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5014,7 +5016,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5023,7 +5025,7 @@
       <c r="L100" s="5"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5032,7 +5034,7 @@
       <c r="L101" s="5"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5041,7 +5043,7 @@
       <c r="L102" s="5"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5050,7 +5052,7 @@
       <c r="L103" s="5"/>
       <c r="M103" s="14"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5059,7 +5061,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5068,7 +5070,7 @@
       <c r="L105" s="5"/>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5077,7 +5079,7 @@
       <c r="L106" s="5"/>
       <c r="M106" s="14"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5086,7 +5088,7 @@
       <c r="L107" s="5"/>
       <c r="M107" s="14"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5095,7 +5097,7 @@
       <c r="L108" s="5"/>
       <c r="M108" s="14"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5104,7 +5106,7 @@
       <c r="L109" s="5"/>
       <c r="M109" s="14"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -5113,5349 +5115,5349 @@
       <c r="L110" s="5"/>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="str">
         <f t="shared" ref="A130:A193" ca="1" si="8">IF(ROW(A130)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A130)))</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="str">
         <f t="shared" ref="A194:A257" ca="1" si="9">IF(ROW(A194)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A194)))</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="21" t="str">
         <f t="shared" ref="A258:A321" ca="1" si="10">IF(ROW(A258)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A258)))</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="21" t="str">
         <f t="shared" ref="A322:A385" ca="1" si="11">IF(ROW(A322)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A322)))</f>
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="21" t="str">
         <f t="shared" ref="A386:A449" ca="1" si="12">IF(ROW(A386)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A386)))</f>
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="21" t="str">
         <f t="shared" ref="A450:A513" ca="1" si="13">IF(ROW(A450)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A450)))</f>
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="21" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="21" t="str">
         <f t="shared" ref="A514:A577" ca="1" si="14">IF(ROW(A514)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A514)))</f>
         <v/>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="21" t="str">
         <f t="shared" ref="A578:A641" ca="1" si="15">IF(ROW(A578)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A578)))</f>
         <v/>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="21" t="str">
         <f t="shared" ref="A642:A705" ca="1" si="16">IF(ROW(A642)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A642)))</f>
         <v/>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="21" t="str">
         <f t="shared" ref="A706:A769" ca="1" si="17">IF(ROW(A706)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A706)))</f>
         <v/>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="21" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="21" t="str">
         <f t="shared" ref="A770:A833" ca="1" si="18">IF(ROW(A770)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A770)))</f>
         <v/>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" s="21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" s="21" t="str">
         <f t="shared" ref="A834:A897" ca="1" si="19">IF(ROW(A834)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A834)))</f>
         <v/>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" s="21" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" s="21" t="str">
         <f t="shared" ref="A898:A961" ca="1" si="20">IF(ROW(A898)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A898)))</f>
         <v/>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="21" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" s="21" t="str">
         <f t="shared" ref="A962:A1000" ca="1" si="21">IF(ROW(A962)&gt;COUNT(INDIRECT("DATA!" &amp; $D$2 &amp; ":" &amp; $D$2)),"",INDIRECT("DATA!"&amp;$D$2&amp;ROW(A962)))</f>
         <v/>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="21" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="1000" spans="1:1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1000" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="22" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -10486,12 +10488,12 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1328125" style="3"/>
+    <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>1.81</v>
       </c>
@@ -10535,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2.36</v>
       </c>
@@ -10576,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.68</v>
       </c>
@@ -10617,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.41</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2.0099999999999998</v>
       </c>
@@ -10699,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1.36</v>
       </c>
@@ -10740,7 +10742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.39</v>
       </c>
@@ -10781,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.3</v>
       </c>
@@ -10822,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.59</v>
       </c>
@@ -10863,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.82</v>
       </c>
@@ -10904,7 +10906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.16</v>
       </c>
@@ -10945,7 +10947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.05</v>
       </c>
@@ -10986,7 +10988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.59</v>
       </c>
@@ -11027,7 +11029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -11068,7 +11070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1.53</v>
       </c>
@@ -11109,7 +11111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.49</v>
       </c>
@@ -11150,7 +11152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.38</v>
       </c>
@@ -11191,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.59</v>
       </c>
@@ -11232,7 +11234,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.87</v>
       </c>
@@ -11273,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0.6</v>
       </c>
@@ -11314,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1.07</v>
       </c>
@@ -11355,7 +11357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2.4</v>
       </c>
@@ -11396,7 +11398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>0.21</v>
       </c>
@@ -11434,7 +11436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>0.15</v>
       </c>
@@ -11472,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>0.41</v>
       </c>
@@ -11510,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>0.87</v>
       </c>
@@ -11548,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>1.39</v>
       </c>
@@ -11586,7 +11588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>0.93</v>
       </c>
@@ -11621,7 +11623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>0.98</v>
       </c>
@@ -11656,7 +11658,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>1.6</v>
       </c>
@@ -11691,7 +11693,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>0.12</v>
       </c>
@@ -11726,7 +11728,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>0.74</v>
       </c>
@@ -11761,7 +11763,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>0.06</v>
       </c>
@@ -11772,7 +11774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>0.35</v>
       </c>
@@ -11780,286 +11782,286 @@
         <v>-0.71</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>0.54</v>
       </c>
       <c r="J35" s="67"/>
       <c r="K35" s="67"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>0.33</v>
       </c>
       <c r="J36" s="67"/>
       <c r="K36" s="67"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>0.17</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>0.03</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>0.37</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>0.46</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>0.65</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>1.48</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>0.87</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>0.26</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>0.03</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>0.31</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>1.32</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>1.71</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>1.43</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>0.78</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>2.35</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>0.46</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>0.21</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>0.09</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>0.69</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>0.42</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>0.18</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>0.59</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>0.52</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>0.19</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>0.06</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>0.51</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>0.08</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>1.67</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>1.28</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>0.88</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>0.52</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>0.18</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>1.58</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>0.48</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>1.01</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>0.46</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>1.21</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>0.43</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>0.4</v>
       </c>
@@ -12071,6 +12073,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BDCF5B47AEDC24CA8B15C4A2E3F5996" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f31f61a0d0264c0e925f8bbe7dbc85d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e5834eaf-11d0-40c9-a2f2-c82d31500573" xmlns:ns4="46882024-780f-4c3f-834f-24a3f685a012" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0345985f18ec67476f53c974e1cc8868" ns3:_="" ns4:_="">
     <xsd:import namespace="e5834eaf-11d0-40c9-a2f2-c82d31500573"/>
@@ -12293,22 +12310,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F9B6735-059E-4CDE-8649-26B1296E1EBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="46882024-780f-4c3f-834f-24a3f685a012"/>
+    <ds:schemaRef ds:uri="e5834eaf-11d0-40c9-a2f2-c82d31500573"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55A6149E-D07E-4FE5-8A6C-C3A8A6FE20F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69BEC293-1942-4F42-8899-AECC59D96D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12325,29 +12352,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55A6149E-D07E-4FE5-8A6C-C3A8A6FE20F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F9B6735-059E-4CDE-8649-26B1296E1EBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="46882024-780f-4c3f-834f-24a3f685a012"/>
-    <ds:schemaRef ds:uri="e5834eaf-11d0-40c9-a2f2-c82d31500573"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>